--- a/data/trans_camb/P35-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P35-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>12.60855119465815</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>11.7387543053097</v>
+        <v>11.73875430530971</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>9.829714950395577</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.595421385155301</v>
+        <v>2.917065372558356</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>6.943435932685568</v>
+        <v>7.4783573131215</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12.4336388652625</v>
+        <v>12.40931164365709</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4.302684041421621</v>
+        <v>4.778147236233927</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>6.104235830040166</v>
+        <v>6.091150844707762</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>6.270056454154535</v>
+        <v>5.843706672878849</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>5.160851607208975</v>
+        <v>5.416707788355588</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>8.320718355023281</v>
+        <v>8.018573373617656</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>10.86458267168506</v>
+        <v>10.89757371465991</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.09044673188494</v>
+        <v>13.98933554722528</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>18.86091068055162</v>
+        <v>19.20279274031016</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23.61775480386891</v>
+        <v>23.97703453262086</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18.84083553793009</v>
+        <v>19.15804894631036</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>19.75329628626231</v>
+        <v>19.37404004464318</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>17.31829920525708</v>
+        <v>16.8609638173042</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>13.99708395739849</v>
+        <v>14.30358967052888</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>17.06492761450977</v>
+        <v>17.01703757718176</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>19.00568181363871</v>
+        <v>18.79128978359616</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.7620478610810135</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7094782320356303</v>
+        <v>0.7094782320356307</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.5698114757033347</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.1379530857796067</v>
+        <v>0.1482951500258253</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.3273115577194947</v>
+        <v>0.3619369865840915</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.6198392164732817</v>
+        <v>0.5941262309444951</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.2308370584968494</v>
+        <v>0.2489699040991788</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2756584100772364</v>
+        <v>0.3060780276828955</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3075608210121217</v>
+        <v>0.2886413961842402</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2645087478729995</v>
+        <v>0.2723308046979478</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.4247200999157893</v>
+        <v>0.4023744915589468</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.5611457344909376</v>
+        <v>0.5565418163291409</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.9259715542674379</v>
+        <v>0.9265523121883684</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.200755925758281</v>
+        <v>1.317640726589606</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.637434189774331</v>
+        <v>1.59197601176568</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.458369134094217</v>
+        <v>1.449081492759376</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.427391399182252</v>
+        <v>1.423285007182777</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.334022156963425</v>
+        <v>1.26176889133314</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9104956701965035</v>
+        <v>0.9360808510512159</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.139117926934494</v>
+        <v>1.085479160884197</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.26479865807081</v>
+        <v>1.256181836915092</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>15.85035825949204</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>22.79749040159634</v>
+        <v>22.79749040159636</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>10.87188217136833</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04875078447582703</v>
+        <v>-0.1870116324033971</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.750387718397614</v>
+        <v>2.215011371400221</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>12.90516283687779</v>
+        <v>13.42048553223142</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9.067994589888505</v>
+        <v>9.125374668932199</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>9.40663075919152</v>
+        <v>9.626556338183054</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>17.06021493403597</v>
+        <v>16.85915831856203</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>6.409552731243464</v>
+        <v>6.392391860507278</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>8.022532615655081</v>
+        <v>8.04575044754405</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>17.14465639159469</v>
+        <v>17.01786793334925</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.65406186670752</v>
+        <v>12.58428194570945</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>14.95260544951684</v>
+        <v>14.89486385139332</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>25.66701509859132</v>
+        <v>25.78323031825758</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>22.19721766332149</v>
+        <v>22.1422906039195</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>22.2509595355619</v>
+        <v>22.26119281836123</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>27.98220862427496</v>
+        <v>28.45167831399307</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>15.6635547124245</v>
+        <v>15.45231169986681</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>16.65438059155855</v>
+        <v>16.79990546346399</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>25.48268267317317</v>
+        <v>25.41673936938923</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>1.066499728210625</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>1.5339411841134</v>
+        <v>1.533941184113401</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.6317361031806998</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.01038704257883799</v>
+        <v>-0.01794670597278141</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.06976376819446622</v>
+        <v>0.08795095388682747</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.5494356926414662</v>
+        <v>0.5755677509416007</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.5260813128828821</v>
+        <v>0.4965297566626925</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5283971374722067</v>
+        <v>0.5231473090969518</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9222891524246433</v>
+        <v>0.9321502882632977</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3280860868232503</v>
+        <v>0.3275124353916187</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.4147011452970513</v>
+        <v>0.4131179761840721</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.8695769246547291</v>
+        <v>0.8514002158453954</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.7552138972462561</v>
+        <v>0.7567271713212601</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.888629531905675</v>
+        <v>0.924084134312703</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.557331391182868</v>
+        <v>1.59665709358042</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.857683607745438</v>
+        <v>1.80668783940941</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.920512839878963</v>
+        <v>1.83621807820513</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.375094362418038</v>
+        <v>2.407528216080565</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.035908244484597</v>
+        <v>1.030006715408059</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.102478011560249</v>
+        <v>1.138869040447123</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.723619492431883</v>
+        <v>1.696269849737256</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>15.5676574106232</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>20.51709947471198</v>
+        <v>20.51709947471199</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>10.33875696841055</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.750256349975953</v>
+        <v>3.365673751030551</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.811430412429645</v>
+        <v>5.657357983868489</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11.89565894821975</v>
+        <v>11.86920599412974</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.66152851620015</v>
+        <v>6.312040859477086</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>5.273286196747689</v>
+        <v>5.251940250423695</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>11.84815840638237</v>
+        <v>11.98714024194938</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>6.165144200763775</v>
+        <v>5.488848758852547</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>7.364789579862613</v>
+        <v>7.329112077166579</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>13.78912947487651</v>
+        <v>13.78082145473827</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>13.51740306003446</v>
+        <v>13.309787810142</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.3639953832396</v>
+        <v>16.61693276392251</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>23.4107262560974</v>
+        <v>23.85231057413439</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>23.60179242659044</v>
+        <v>25.05410870924382</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>26.08422991780856</v>
+        <v>24.94336933619091</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>28.68200513767993</v>
+        <v>29.5376603737834</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>15.55226371805499</v>
+        <v>14.69307605163086</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>17.05147476859085</v>
+        <v>17.05970446268847</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>23.27468820009474</v>
+        <v>23.61610887501984</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.5508787663082827</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.8658027328508993</v>
+        <v>0.865802732850899</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.7318701717144803</v>
@@ -1188,7 +1188,7 @@
         <v>0.7479766593650928</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9857816831506202</v>
+        <v>0.9857816831506205</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.499651139086256</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.1170801683289945</v>
+        <v>0.1459669398834711</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.257578458605033</v>
+        <v>0.240066025605385</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.5147372303360525</v>
+        <v>0.5121232360401873</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.2166054354119601</v>
+        <v>0.2357503004247779</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1875573821539817</v>
+        <v>0.2012873023928474</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4579623697163255</v>
+        <v>0.4493719258133273</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2626269746459554</v>
+        <v>0.2300558858306611</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.3103847129098873</v>
+        <v>0.3027575720020646</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.5885398801705735</v>
+        <v>0.5853256228026129</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.750761456963567</v>
+        <v>0.7584734038266098</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.900133256087511</v>
+        <v>0.9236231450540014</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.287323447889678</v>
+        <v>1.330524023015161</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.489408867960012</v>
+        <v>1.606085419147928</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.598577935244002</v>
+        <v>1.498062091583042</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.790125520362232</v>
+        <v>1.859607790837289</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8523917771644448</v>
+        <v>0.7878757417649308</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.9051234378353946</v>
+        <v>0.9125014617620646</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.300713182695053</v>
+        <v>1.269271856555982</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>9.976729964326259</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>14.72614034167967</v>
+        <v>14.72614034167968</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>4.841786628953027</v>
+        <v>5.1102368744995</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.969257764328707</v>
+        <v>5.112354385331053</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>12.34490325275676</v>
+        <v>12.45659175179224</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6.590421458735193</v>
+        <v>6.077500113562478</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>7.399490429324215</v>
+        <v>6.982337323027293</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>8.798652749631529</v>
+        <v>8.144375913786785</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>7.111266769563087</v>
+        <v>7.093649934618145</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>7.23911283594559</v>
+        <v>7.143746972520614</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>12.02335175102182</v>
+        <v>11.98038109004765</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>12.42503944732598</v>
+        <v>12.15607885109328</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>11.68135121257873</v>
+        <v>12.45527487701689</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>20.34622470770711</v>
+        <v>20.07177686118705</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16.23145315976702</v>
+        <v>15.83580664565243</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>16.27007012195626</v>
+        <v>15.85546520464391</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>16.94712653484337</v>
+        <v>16.65229142874606</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>12.667399479691</v>
+        <v>12.76271602129173</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>12.82088472834942</v>
+        <v>12.78681776684664</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>17.53443902991428</v>
+        <v>17.5329952260782</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.4975331953631509</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.7343832784650171</v>
+        <v>0.7343832784650176</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.2198248461728412</v>
+        <v>0.2319512963324307</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.2296623234121112</v>
+        <v>0.2384636673443648</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.550941283716588</v>
+        <v>0.562622140241993</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.2935705028462591</v>
+        <v>0.2663700502695313</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.3313325039992449</v>
+        <v>0.3087215732102273</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3810229625217058</v>
+        <v>0.3600623386308536</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3329844958149208</v>
+        <v>0.3292306983040336</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.332536451652137</v>
+        <v>0.3294965184945973</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.554673633680397</v>
+        <v>0.5584581248088937</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.6592864042925378</v>
+        <v>0.6439287308114463</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.6252440990501048</v>
+        <v>0.6637126615682881</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.093694444011153</v>
+        <v>1.082697339537652</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.9094334031453133</v>
+        <v>0.8638047017438603</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8972698170563812</v>
+        <v>0.8895748196206026</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9543696943672733</v>
+        <v>0.9336118886820436</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6730105417417515</v>
+        <v>0.6779131270015945</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6813651141421289</v>
+        <v>0.6932186518048997</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.9331657558790735</v>
+        <v>0.9274144586207008</v>
       </c>
     </row>
     <row r="28">
@@ -1520,7 +1520,7 @@
         <v>20.77296162608207</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>24.10511016533255</v>
+        <v>24.10511016533254</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>9.787558571240506</v>
+        <v>9.223134309842553</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>12.14308823839721</v>
+        <v>12.57433855434395</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>12.99097823034204</v>
+        <v>13.61586936802198</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>11.13141312616881</v>
+        <v>11.36871138701726</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>19.49103666215087</v>
+        <v>19.65333557478263</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>23.20614534426143</v>
+        <v>23.00686849355546</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>11.55033154734008</v>
+        <v>11.66501605052347</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>17.22970692676794</v>
+        <v>17.13242705598204</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>20.55961606664042</v>
+        <v>20.69312796941752</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>19.84448512376938</v>
+        <v>19.46765830460206</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>21.74098039481429</v>
+        <v>21.95482650578821</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>24.32606136897426</v>
+        <v>24.4314028422495</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>20.72087967136216</v>
+        <v>20.98399632443893</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>29.48659274960326</v>
+        <v>29.86198702153182</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>32.22521567629077</v>
+        <v>32.21433561062712</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>18.67979307128453</v>
+        <v>18.82980095743</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>24.25712094596804</v>
+        <v>24.41038342441421</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>27.75532954424427</v>
+        <v>27.44735089860578</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>1.501974366464846</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1.6377485870283</v>
+        <v>1.637748587028299</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.9237311337838332</v>
@@ -1616,7 +1616,7 @@
         <v>1.400304126709067</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1.597670304959202</v>
+        <v>1.597670304959203</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>1.007638348431363</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.6513233575428944</v>
+        <v>0.6320850767774782</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.8440288593997056</v>
+        <v>0.8604777066949321</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.8851828095203494</v>
+        <v>0.9431203695236621</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.5399692636986012</v>
+        <v>0.5498441167943624</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.9559822870106804</v>
+        <v>0.9409617255647125</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>1.147498383313428</v>
+        <v>1.077019852931558</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.6655812209495856</v>
+        <v>0.6880943559924861</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.991345358386162</v>
+        <v>1.017376999639412</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>1.165547182750692</v>
+        <v>1.20491899889865</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.306477902826994</v>
+        <v>2.254778317683005</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>2.346040752422973</v>
+        <v>2.467891792643772</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.677421447698456</v>
+        <v>2.778812532796215</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.390897169243685</v>
+        <v>1.36640444198697</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.95493244870742</v>
+        <v>2.025846660214028</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.204024323818984</v>
+        <v>2.161802095635233</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.410537211802896</v>
+        <v>1.405013938578459</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.811515851002854</v>
+        <v>1.823765232249783</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>2.088141722012208</v>
+        <v>2.109429520579907</v>
       </c>
     </row>
     <row r="34">
@@ -1734,7 +1734,7 @@
         <v>6.581355970576394</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>14.10899630736057</v>
+        <v>14.10899630736056</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.953456186947181</v>
+        <v>-4.149520972707082</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.8221823096229625</v>
+        <v>-0.8170548008651878</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>7.574097476990918</v>
+        <v>7.590492332454374</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>7.131253431421301</v>
+        <v>7.625273319236332</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>3.543952513109013</v>
+        <v>3.412101373929218</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>10.19047343084788</v>
+        <v>10.22106033167012</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>6.079516804366506</v>
+        <v>5.91097552648023</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>3.281606776095342</v>
+        <v>3.279671917200111</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>10.36232094731529</v>
+        <v>10.30831478047897</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>4.105376128776162</v>
+        <v>3.928913103224577</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>8.558038124867736</v>
+        <v>8.469033606688884</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>23.73515052075628</v>
+        <v>25.05551076410832</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>15.52045580828356</v>
+        <v>15.84503167418737</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>11.40134243551188</v>
+        <v>11.11264707704305</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>18.3236418562509</v>
+        <v>18.54667497830826</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>13.00050109149959</v>
+        <v>12.80779306655724</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>9.85002916933594</v>
+        <v>10.44486763483301</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>18.03355443685212</v>
+        <v>17.93731474698987</v>
       </c>
     </row>
     <row r="37">
@@ -1839,7 +1839,7 @@
         <v>0.282047846563948</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.6046492612556903</v>
+        <v>0.6046492612556901</v>
       </c>
     </row>
     <row r="38">
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.5158955874790069</v>
+        <v>-0.5151016620447776</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1264816092251512</v>
+        <v>-0.1347185434986075</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.8909499805620359</v>
+        <v>0.8281410999062921</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.2413491353617679</v>
+        <v>0.2646725588637397</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.1134417579680641</v>
+        <v>0.1139038048252141</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.347997056009452</v>
+        <v>0.3400430450085842</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2406119415066944</v>
+        <v>0.2445151500239315</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.1319501215558241</v>
+        <v>0.1266250308264829</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.4086946272570408</v>
+        <v>0.4212382717777317</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.100290669260929</v>
+        <v>1.006650427264409</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2.092120022348444</v>
+        <v>2.128527996333709</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>5.518305286087422</v>
+        <v>5.795556830795248</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.5928578999822841</v>
+        <v>0.6163477495414527</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.435855823048993</v>
+        <v>0.430755496975251</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.7072825205419795</v>
+        <v>0.718066730917579</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.5920694248511896</v>
+        <v>0.6019890222663301</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.4462447350289134</v>
+        <v>0.4826175019507872</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.8182351226369131</v>
+        <v>0.8262318291783289</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>10.29310592362072</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>17.30199466816138</v>
+        <v>17.30199466816137</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>12.78431154457294</v>
@@ -1948,7 +1948,7 @@
         <v>11.82292963238097</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>17.01948437485586</v>
+        <v>17.01948437485587</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>6.299393687622677</v>
+        <v>6.336511561310444</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>8.173688251274026</v>
+        <v>8.179847542909553</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>15.05757730515145</v>
+        <v>15.34836548486638</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>10.40969659048119</v>
+        <v>10.66392738230515</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>10.98521524306589</v>
+        <v>10.95303622968927</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>14.65926561112364</v>
+        <v>14.56456739427798</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>9.188476703428487</v>
+        <v>9.109320378201154</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>10.36125660844139</v>
+        <v>10.27409508457461</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>15.46500189100777</v>
+        <v>15.39452087730773</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>10.26043393674174</v>
+        <v>10.40896698442967</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>12.30648732366672</v>
+        <v>12.38468621358917</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>19.65408957000625</v>
+        <v>19.31762904798907</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>14.69915744105751</v>
+        <v>15.07765018901124</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>15.41793403412795</v>
+        <v>15.47660695042275</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>18.57736039421225</v>
+        <v>18.69525964681603</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>12.09165963741555</v>
+        <v>12.23051927553465</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>13.27535223185464</v>
+        <v>13.38929217989492</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>18.5173582112983</v>
+        <v>18.39051109964454</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.5869211220437875</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.986573557057188</v>
+        <v>0.9865735570571873</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.5928053293773617</v>
@@ -2053,7 +2053,7 @@
         <v>0.6038569197255921</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.8692712998790469</v>
+        <v>0.8692712998790472</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.3372924017649462</v>
+        <v>0.3502349620904094</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.4356421233476213</v>
+        <v>0.4388629013167514</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.8069022732179427</v>
+        <v>0.8314019524074179</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.4585293383924689</v>
+        <v>0.4673322058953645</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.4807322484941177</v>
+        <v>0.4865353238536829</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.6462888411804427</v>
+        <v>0.6386050875405048</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.4535003942660186</v>
+        <v>0.4492882250256924</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.5150258713465146</v>
+        <v>0.5035662359030748</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.7556613704771258</v>
+        <v>0.7581466317553627</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.616927095209955</v>
+        <v>0.6248727681699876</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.7464925374551208</v>
+        <v>0.7331923261604224</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.171001055173745</v>
+        <v>1.163333833128401</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.7180339510428227</v>
+        <v>0.7350671669840728</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.7467554921031963</v>
+        <v>0.7607705026296752</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.9096755763044601</v>
+        <v>0.9159028917132169</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.639183205158377</v>
+        <v>0.6459894445826703</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.7045312596619975</v>
+        <v>0.7036690864293995</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.9868760175638076</v>
+        <v>0.9713981809540375</v>
       </c>
     </row>
     <row r="46">
